--- a/data/train.xlsx
+++ b/data/train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SI_2023_2\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Downloads\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC60B409-A2AE-4428-8B48-CCF97ECEB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE7DABF-DD8E-41CB-AF79-EA2A2919A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -904,7 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46053,6 +46055,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>